--- a/Files/Login2.xlsx
+++ b/Files/Login2.xlsx
@@ -411,7 +411,7 @@
           <t>asdasdA</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" s="0" t="inlineStr">
         <is>
           <t>FAILED</t>
         </is>
